--- a/biology/Médecine/Injection_anti-rides/Injection_anti-rides.xlsx
+++ b/biology/Médecine/Injection_anti-rides/Injection_anti-rides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les injections anti-rides constituent le traitement de médecine esthétique le plus recherché actuellement.
 Les rides peuvent être traitées de plusieurs manières - lasers, LED, radiofréquence, mésothérapie (mésolift), peelings, injection de graisse (lipofilling) - mais la méthode la plus populaire et la plus simple est l’injection de produits spécifiques sous la peau.
@@ -512,7 +524,9 @@
           <t>Les produits utilisés en injections</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Trois types de produits injectables peuvent être utilisés :
 l’acide hyaluronique : ce glycosaminoglycane absorbant l'eau remplace le tissu sous cutané disparu au niveau des rides. On parle de comblement de rides. Son efficacité durera de 6 à 12 mois selon le produit utilisé. De très nombreux fabricants existent. Ils sont listés sur le site de l’agence nationale de sécurité du médicament et des produits de santé (ANSM). En France, il existe 8 principaux fournisseurs.
@@ -545,7 +559,9 @@
           <t>Les professionnels pratiquant ce type de traitement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il ne peut s’agir que de médecins ou chirurgiens formés aux techniques d’injections. 
 </t>
